--- a/analysis/wordlist_trump.xlsx
+++ b/analysis/wordlist_trump.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ingridleong/Documents/pronouns-in-politics/analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3624F6B-A204-CB4F-98EE-273278443E10}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C23E1CCA-C412-AF43-924E-3562C74879CD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13000" yWindow="0" windowWidth="12600" windowHeight="16000" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8220" yWindow="460" windowWidth="21940" windowHeight="15040" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="summary" sheetId="8" r:id="rId1"/>
@@ -832,7 +832,7 @@
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -841,8 +841,7 @@
       <c r="A1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5">
+      <c r="B1" s="5">
         <v>2949</v>
       </c>
     </row>
@@ -850,8 +849,7 @@
       <c r="A2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5">
+      <c r="B2" s="5">
         <v>17081</v>
       </c>
     </row>
@@ -1193,7 +1191,7 @@
       </c>
       <c r="B22" s="6"/>
       <c r="C22" s="6">
-        <f>C21/C2</f>
+        <f>C21/B2</f>
         <v>8.904630876412388E-2</v>
       </c>
     </row>
